--- a/Meilenstein 2/Dokumente/Anforderungen_neu_26.01.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen_neu_26.01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151BABB-FB55-48A7-8C08-CCB4F201A10D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB325A5-4FDC-4D56-B842-0DDC80C3ADF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="15000" windowWidth="15930" windowHeight="13215" xr2:uid="{2BCF7BC0-CEF4-4315-97E4-C741C7444B2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2BCF7BC0-CEF4-4315-97E4-C741C7444B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
   <si>
     <t>Anforderungsliste</t>
   </si>
@@ -408,9 +408,6 @@
     <t>0.5 m/s^2</t>
   </si>
   <si>
-    <t>Erntevolumen</t>
-  </si>
-  <si>
     <t>1,400 h</t>
   </si>
   <si>
@@ -505,6 +502,27 @@
   </si>
   <si>
     <t>Werkstoffe</t>
+  </si>
+  <si>
+    <t>Strömungen dürfen nicht zu Beschädigungen führen</t>
+  </si>
+  <si>
+    <t>Keine Beschädigung durch leichte Kollision</t>
+  </si>
+  <si>
+    <t>Erntegeschwindigkeit</t>
+  </si>
+  <si>
+    <t>Bewegung in 6 Achsen</t>
+  </si>
+  <si>
+    <t>Antrieb für Vorwärtsbewegung</t>
+  </si>
+  <si>
+    <t>spielfreie Aktorbewegung</t>
+  </si>
+  <si>
+    <t>anpasspare Fahrgeschwindigkeiten</t>
   </si>
 </sst>
 </file>
@@ -720,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,6 +869,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -860,6 +893,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,24 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA31EE4C-58B6-47E5-98FC-359BDBA6B7B3}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,83 +1271,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -1338,33 +1365,33 @@
       <c r="E6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -1380,16 +1407,16 @@
         <v>93</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -1405,16 +1432,16 @@
         <v>85</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -1427,19 +1454,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -1452,19 +1479,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -1480,14 +1507,14 @@
         <v>105</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -1503,14 +1530,14 @@
         <v>91</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -1526,14 +1553,14 @@
         <v>92</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -1549,14 +1576,14 @@
         <v>94</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -1572,14 +1599,14 @@
         <v>92</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
@@ -1593,31 +1620,31 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
@@ -1633,14 +1660,14 @@
         <v>85</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
@@ -1656,14 +1683,14 @@
         <v>86</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
@@ -1679,14 +1706,14 @@
         <v>87</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
@@ -1702,14 +1729,14 @@
         <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
@@ -1725,14 +1752,14 @@
         <v>89</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
@@ -1748,14 +1775,14 @@
         <v>90</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
@@ -1771,31 +1798,31 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>3</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
@@ -1811,14 +1838,14 @@
         <v>78</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
@@ -1834,14 +1861,14 @@
         <v>79</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
@@ -1857,14 +1884,14 @@
         <v>84</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
@@ -1880,14 +1907,14 @@
         <v>81</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
@@ -1903,14 +1930,14 @@
         <v>82</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
@@ -1926,14 +1953,14 @@
         <v>83</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
@@ -1949,14 +1976,14 @@
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
@@ -1972,31 +1999,31 @@
         <v>79</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>4</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
@@ -2010,14 +2037,14 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
@@ -2033,14 +2060,14 @@
         <v>95</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
@@ -2056,14 +2083,14 @@
         <v>96</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
@@ -2079,31 +2106,31 @@
         <v>97</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>5</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
@@ -2119,31 +2146,25 @@
         <v>107</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
-        <v>5.2</v>
-      </c>
+      <c r="A42" s="32"/>
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="C42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
@@ -2151,22 +2172,16 @@
       <c r="J42" s="42"/>
       <c r="K42" s="43"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
-        <v>5.3</v>
-      </c>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="C43" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="41"/>
       <c r="G43" s="42"/>
       <c r="H43" s="43"/>
@@ -2174,560 +2189,558 @@
       <c r="J43" s="42"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="47"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35">
+        <v>5.3</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="47"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
         <v>6</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B46" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
-        <v>6.1</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
-        <v>6.2</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="43"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>113</v>
+      <c r="C48" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="47"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="47"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
         <v>6.5</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="33" t="s">
+      <c r="B51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D51" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="43"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36">
+      <c r="E51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="47"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36">
         <v>6.6</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="B52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D52" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="43"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="E52" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
         <v>7</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B53" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="51"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
         <v>7.1</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>125</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D55" s="27"/>
       <c r="E55" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="47"/>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="47"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="E57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="47"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="43"/>
+      <c r="F58" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>16</v>
+      <c r="A61" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="D61" s="27"/>
       <c r="E61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="43"/>
-    </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="F61" s="48"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D62" s="27"/>
       <c r="E62" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="47"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>7.12</v>
+        <v>7.1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="43"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F63" s="48"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="47"/>
+    </row>
+    <row r="64" spans="1:11" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E64" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>7.15</v>
+        <v>7.13</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="47"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="47"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F68" s="48"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>7.1800000000000104</v>
+        <v>7.16</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>142</v>
@@ -2735,95 +2748,95 @@
       <c r="E69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="43"/>
-    </row>
-    <row r="70" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="47"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>7.1900000000000102</v>
+        <v>7.17</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>7.2000000000000099</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>70</v>
+        <v>7.1800000000000104</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="42"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="43"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F71" s="48"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="47"/>
+    </row>
+    <row r="72" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>7.2100000000000097</v>
-      </c>
-      <c r="B72" s="37" t="s">
+        <v>7.1900000000000102</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="29">
-        <v>0.9</v>
+        <v>65</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="43"/>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="47"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>7.2200000000000104</v>
+        <v>7.2000000000000099</v>
       </c>
       <c r="B73" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>140</v>
@@ -2831,109 +2844,111 @@
       <c r="E73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="43"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+      <c r="F73" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="47"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>7.2100000000000097</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="48"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="47"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>7.2200000000000104</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="48"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="47"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
         <v>9</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B76" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="60"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="36">
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="55"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="36">
         <v>9.1</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="43"/>
-    </row>
-    <row r="76" spans="1:11" s="13" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="43"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24">
-        <v>8</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="46"/>
+      <c r="E77" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
-        <v>8.1</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A78" s="36"/>
+      <c r="B78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="42"/>
       <c r="H78" s="43"/>
@@ -2941,22 +2956,16 @@
       <c r="J78" s="42"/>
       <c r="K78" s="43"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>126</v>
-      </c>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+      <c r="B79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="42"/>
       <c r="H79" s="43"/>
@@ -2964,338 +2973,492 @@
       <c r="J79" s="42"/>
       <c r="K79" s="43"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="24">
-        <v>9</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="46"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
+      <c r="B80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="43"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>135</v>
-      </c>
+      <c r="A81" s="36"/>
+      <c r="B81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="42"/>
       <c r="H81" s="43"/>
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
       <c r="K81" s="43"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+    <row r="82" spans="1:11" s="13" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B82" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="46"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="47"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="24">
+        <v>8</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="51"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
+        <v>8.1</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="47"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="47"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24">
+        <v>9</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>9.1</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G87" s="46"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="47"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="43"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
+      <c r="D88" s="39"/>
+      <c r="E88" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="47"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B83" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B89" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="43"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+      <c r="D89" s="39"/>
+      <c r="E89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="47"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
         <v>9.4</v>
       </c>
-      <c r="B84" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B90" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="43"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
+      <c r="D90" s="39"/>
+      <c r="E90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="47"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
         <v>9.5</v>
       </c>
-      <c r="B85" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B91" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="41"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28">
+      <c r="D91" s="39"/>
+      <c r="E91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="48"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="47"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="28">
         <v>9.6</v>
       </c>
-      <c r="B86" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B92" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="41" t="s">
+      <c r="D92" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="43"/>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="61">
+      <c r="E92" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44">
         <v>10</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B93" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="51"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="45">
+        <v>10.1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="46"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="62">
-        <v>10.1</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="62">
-        <v>10.3</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="62">
-        <v>10.5</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="62">
-        <v>10.7</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="45">
+        <v>10.3</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="45">
+        <v>10.7</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>11</v>
       </c>
-      <c r="B95" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="B101" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>11.1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>11.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:K85"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="I84:K84"/>
-    <mergeCell ref="B77:K77"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="I48:K48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="E1:K5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
@@ -3310,98 +3473,64 @@
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B7:K7"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="I52:K52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="B83:K83"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="I63:K63"/>
     <mergeCell ref="F64:H64"/>
     <mergeCell ref="I64:K64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
